--- a/biology/Médecine/Ceinture_scapulaire_(anatomie_humaine)/Ceinture_scapulaire_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Ceinture_scapulaire_(anatomie_humaine)/Ceinture_scapulaire_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ceinture scapulaire[1] chez l'homme appelée également ceinture pectorale est formée d'un ensemble d'os qui s'articulent entre eux. Elle fait partie du squelette appendiculaire.
-Elle relie les os des membres supérieurs au squelette axial[2] et, par sa mobilité, permet les mouvements des bras dans plusieurs directions.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ceinture scapulaire chez l'homme appelée également ceinture pectorale est formée d'un ensemble d'os qui s'articulent entre eux. Elle fait partie du squelette appendiculaire.
+Elle relie les os des membres supérieurs au squelette axial et, par sa mobilité, permet les mouvements des bras dans plusieurs directions.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Les os de la ceinture scapulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sens strict du terme la ceinture scapulaire est constituée de quatre os : les deux scapulas et les deux clavicules[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sens strict du terme la ceinture scapulaire est constituée de quatre os : les deux scapulas et les deux clavicules.
 Les scapulas sont situées à la partie postéro-supérieure du thorax et les clavicules sont situées en avant, au-dessus de la première côte
-Dans la littérature le manubrium sternal et l'humérus y sont parfois intégré[4].
+Dans la littérature le manubrium sternal et l'humérus y sont parfois intégré.
 </t>
         </is>
       </c>
@@ -545,14 +559,51 @@
           <t>Les articulations entre os</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les articulations de la ceinture scapulaire possèdent un degré de liberté qui leur permettent de bouger librement. Ceci autorise des mouvements dans plusieurs directions. À l'avant, les deux clavicules s'articulent avec le manubrium sternal. Â l'arrière, les scapulas s'articulent avec les clavicules et les humérus[2].
-L'extrémité sternale est arrondie de la clavicule s'articule avec le manubrium sternal[5]. Ce couple forme, avec le premier cartilage costal, l'articulation sterno-claviculaire qui dispose de trois degrés de liberté (énarthrose). L'ensemble est solidement fixé par quatre ligaments[6].
-La scapula s'articule avec la clavicule au niveau de l'acromion. Cette jonction entre ces deux os est connue sous le terme d'articulation acromio-claviculaire[5] qui dispose également de trois degrés de liberté. Cette articulation est fixée par quatre ligaments[6].
-En dessous de l'acromion de la scapula se situe une cavité appelée « cavité glénoïdale » qui reçoit la tête de l'humérus. Cette jonction constituée de la cavité glénoïdale de la scapula et la tête de l'humérus se nomme articulation gléno-humérale (ou scapulo-humérale)[5].
-Les ligaments des articulations
-La ceinture scapulaire comprend des ligaments qui permettent de relier les os entre eux au niveau des articulations qui sont au nombre de trois. Ces ligaments sont[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les articulations de la ceinture scapulaire possèdent un degré de liberté qui leur permettent de bouger librement. Ceci autorise des mouvements dans plusieurs directions. À l'avant, les deux clavicules s'articulent avec le manubrium sternal. Â l'arrière, les scapulas s'articulent avec les clavicules et les humérus.
+L'extrémité sternale est arrondie de la clavicule s'articule avec le manubrium sternal. Ce couple forme, avec le premier cartilage costal, l'articulation sterno-claviculaire qui dispose de trois degrés de liberté (énarthrose). L'ensemble est solidement fixé par quatre ligaments.
+La scapula s'articule avec la clavicule au niveau de l'acromion. Cette jonction entre ces deux os est connue sous le terme d'articulation acromio-claviculaire qui dispose également de trois degrés de liberté. Cette articulation est fixée par quatre ligaments.
+En dessous de l'acromion de la scapula se situe une cavité appelée « cavité glénoïdale » qui reçoit la tête de l'humérus. Cette jonction constituée de la cavité glénoïdale de la scapula et la tête de l'humérus se nomme articulation gléno-humérale (ou scapulo-humérale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceinture_scapulaire_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceinture_scapulaire_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les articulations entre os</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les ligaments des articulations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La ceinture scapulaire comprend des ligaments qui permettent de relier les os entre eux au niveau des articulations qui sont au nombre de trois. Ces ligaments sont :
 Articulation sterno-claviculaire :
 les ligaments antérieur et postérieur,
 le ligament costo-claviculaire qui relie la clavicule à la première côte,
@@ -569,37 +620,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ceinture_scapulaire_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ceinture_scapulaire_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Les muscles de la ceinture scapulaire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les muscles de la ceinture scapulaire se divisent en groupes postérieur (dorsal) et antérieur (ventral). Cette division, elle-même, s'effectue en muscles de la ceinture scapulaire s'insérant sur l'humérus et en muscles du tronc et de la tête s'insérant sur la ceinture scapulaire[7].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -621,13 +641,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les muscles de la ceinture scapulaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles de la ceinture scapulaire se divisent en groupes postérieur (dorsal) et antérieur (ventral). Cette division, elle-même, s'effectue en muscles de la ceinture scapulaire s'insérant sur l'humérus et en muscles du tronc et de la tête s'insérant sur la ceinture scapulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceinture_scapulaire_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceinture_scapulaire_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Les mouvements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les muscles responsables des mouvements de la ceinture scapulaire partent du squelette axial pour s'insérer sur la scapula ou la clavicule. Ces derniers ont pour fonction principale de stabiliser la scapula afin que celle-ci serve de point d'origine stable aux muscles qui assurent les mouvements de l'humérus[8]. La combinaison des mobilités des articulations sterno-claviculaire et acromio-claviculaire permettent à la scapula de se déplacer dans de nombreuses directions[9].
-Les mouvements principaux de la ceinture scapulaire sont les suivants[10],[11] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les muscles responsables des mouvements de la ceinture scapulaire partent du squelette axial pour s'insérer sur la scapula ou la clavicule. Ces derniers ont pour fonction principale de stabiliser la scapula afin que celle-ci serve de point d'origine stable aux muscles qui assurent les mouvements de l'humérus. La combinaison des mobilités des articulations sterno-claviculaire et acromio-claviculaire permettent à la scapula de se déplacer dans de nombreuses directions.
+Les mouvements principaux de la ceinture scapulaire sont les suivants, :
 Abaissement : mouvement sans rotation de la scapula vers le bas.
 Muscles sollicités : trapèze (partie inférieure), dentelé antérieur, petit pectoral, grand pectoral, grand dorsal.
 Élévation : mouvement sans rotation de la scapula vers le haut.
